--- a/classification/droptc/sentence/neo-bert/freeze/43782163/prediction.xlsx
+++ b/classification/droptc/sentence/neo-bert/freeze/43782163/prediction.xlsx
@@ -478,19 +478,19 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E2" t="b">
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7820804119110107</v>
+        <v>0.8402392268180847</v>
       </c>
     </row>
     <row r="3">
@@ -518,7 +518,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9148648381233215</v>
+        <v>0.9983365535736084</v>
       </c>
     </row>
     <row r="4">
@@ -546,7 +546,7 @@
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9384145736694336</v>
+        <v>0.4353727996349335</v>
       </c>
     </row>
     <row r="5">
@@ -562,19 +562,19 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E5" t="b">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8897982835769653</v>
+        <v>0.7420106530189514</v>
       </c>
     </row>
     <row r="6">
@@ -590,7 +590,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -599,10 +599,10 @@
         </is>
       </c>
       <c r="E6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7219462990760803</v>
+        <v>0.9987323880195618</v>
       </c>
     </row>
     <row r="7">
@@ -630,7 +630,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9396283030509949</v>
+        <v>0.9985247254371643</v>
       </c>
     </row>
     <row r="8">
@@ -658,7 +658,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9250240921974182</v>
+        <v>0.9837434887886047</v>
       </c>
     </row>
     <row r="9">
@@ -674,19 +674,19 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E9" t="b">
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7177605032920837</v>
+        <v>0.9647395610809326</v>
       </c>
     </row>
     <row r="10">
@@ -702,19 +702,19 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E10" t="b">
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9241032004356384</v>
+        <v>0.9837434887886047</v>
       </c>
     </row>
     <row r="11">
@@ -742,7 +742,7 @@
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8362709283828735</v>
+        <v>0.9859615564346313</v>
       </c>
     </row>
     <row r="12">
@@ -758,19 +758,19 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E12" t="b">
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.7149051427841187</v>
+        <v>0.9913115501403809</v>
       </c>
     </row>
     <row r="13">
@@ -786,19 +786,19 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E13" t="b">
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9597147107124329</v>
+        <v>0.9881430268287659</v>
       </c>
     </row>
     <row r="14">
@@ -826,7 +826,7 @@
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9250240921974182</v>
+        <v>0.9811991453170776</v>
       </c>
     </row>
     <row r="15">
@@ -847,14 +847,14 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.7135791182518005</v>
+        <v>0.6926278471946716</v>
       </c>
     </row>
     <row r="16">
@@ -882,7 +882,7 @@
         <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9501407146453857</v>
+        <v>0.917847752571106</v>
       </c>
     </row>
     <row r="17">
@@ -910,7 +910,7 @@
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9819210171699524</v>
+        <v>0.9731022119522095</v>
       </c>
     </row>
     <row r="18">
@@ -926,7 +926,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -935,10 +935,10 @@
         </is>
       </c>
       <c r="E18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.8354656100273132</v>
+        <v>0.7673344612121582</v>
       </c>
     </row>
     <row r="19">
@@ -966,7 +966,7 @@
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9185923933982849</v>
+        <v>0.9899611473083496</v>
       </c>
     </row>
     <row r="20">
@@ -994,7 +994,7 @@
         <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0.8558788299560547</v>
+        <v>0.8845027089118958</v>
       </c>
     </row>
     <row r="21">
@@ -1010,7 +1010,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1019,10 +1019,10 @@
         </is>
       </c>
       <c r="E21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>0.6410266160964966</v>
+        <v>0.9975072741508484</v>
       </c>
     </row>
     <row r="22">
@@ -1038,7 +1038,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1047,10 +1047,10 @@
         </is>
       </c>
       <c r="E22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>0.443448930978775</v>
+        <v>0.9886870384216309</v>
       </c>
     </row>
     <row r="23">
@@ -1078,7 +1078,7 @@
         <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0.7519574761390686</v>
+        <v>0.9922811388969421</v>
       </c>
     </row>
     <row r="24">
@@ -1106,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>0.895415723323822</v>
+        <v>0.9966081380844116</v>
       </c>
     </row>
     <row r="25">
@@ -1122,7 +1122,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1131,10 +1131,10 @@
         </is>
       </c>
       <c r="E25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0.6811428070068359</v>
+        <v>0.645335853099823</v>
       </c>
     </row>
     <row r="26">
@@ -1150,19 +1150,19 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E26" t="b">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0.3792669475078583</v>
+        <v>0.6650635004043579</v>
       </c>
     </row>
     <row r="27">
@@ -1190,7 +1190,7 @@
         <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>0.8939008712768555</v>
+        <v>0.9978370070457458</v>
       </c>
     </row>
     <row r="28">
@@ -1206,7 +1206,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1215,10 +1215,10 @@
         </is>
       </c>
       <c r="E28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>0.4327119886875153</v>
+        <v>0.9983365535736084</v>
       </c>
     </row>
     <row r="29">
@@ -1234,7 +1234,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1243,10 +1243,10 @@
         </is>
       </c>
       <c r="E29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>0.663982629776001</v>
+        <v>0.9950234889984131</v>
       </c>
     </row>
     <row r="30">
@@ -1274,7 +1274,7 @@
         <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>0.8396847248077393</v>
+        <v>0.9726436734199524</v>
       </c>
     </row>
     <row r="31">
@@ -1302,7 +1302,7 @@
         <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>0.8967273235321045</v>
+        <v>0.9867393970489502</v>
       </c>
     </row>
     <row r="32">
@@ -1330,7 +1330,7 @@
         <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>0.8882238268852234</v>
+        <v>0.8859628438949585</v>
       </c>
     </row>
     <row r="33">
@@ -1346,19 +1346,19 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E33" t="b">
         <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>0.9251906871795654</v>
+        <v>0.9638317227363586</v>
       </c>
     </row>
     <row r="34">
@@ -1374,19 +1374,19 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E34" t="b">
         <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>0.6851969361305237</v>
+        <v>0.978770911693573</v>
       </c>
     </row>
     <row r="35">
@@ -1402,19 +1402,19 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E35" t="b">
         <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>0.6187930107116699</v>
+        <v>0.9973244667053223</v>
       </c>
     </row>
     <row r="36">
@@ -1435,14 +1435,14 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>0.4978615045547485</v>
+        <v>0.9978957176208496</v>
       </c>
     </row>
     <row r="37">
@@ -1458,19 +1458,19 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E37" t="b">
         <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>0.4624871611595154</v>
+        <v>0.930980920791626</v>
       </c>
     </row>
     <row r="38">
@@ -1486,19 +1486,19 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E38" t="b">
         <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>0.4923351407051086</v>
+        <v>0.9961207509040833</v>
       </c>
     </row>
     <row r="39">
@@ -1514,7 +1514,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1523,10 +1523,10 @@
         </is>
       </c>
       <c r="E39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0.8457213044166565</v>
+        <v>0.9430443048477173</v>
       </c>
     </row>
     <row r="40">
@@ -1542,19 +1542,19 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.9519085288047791</v>
+        <v>0.4184839427471161</v>
       </c>
     </row>
     <row r="41">
@@ -1582,7 +1582,7 @@
         <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>0.9354336857795715</v>
+        <v>0.9882472157478333</v>
       </c>
     </row>
     <row r="42">
@@ -1598,19 +1598,19 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0.8717607855796814</v>
+        <v>0.9740551710128784</v>
       </c>
     </row>
     <row r="43">
@@ -1626,19 +1626,19 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E43" t="b">
         <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>0.8185239434242249</v>
+        <v>0.9925758838653564</v>
       </c>
     </row>
     <row r="44">
@@ -1654,19 +1654,19 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>0.7558065056800842</v>
+        <v>0.5246788859367371</v>
       </c>
     </row>
     <row r="45">
@@ -1682,19 +1682,19 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E45" t="b">
         <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>0.6476060152053833</v>
+        <v>0.9641309976577759</v>
       </c>
     </row>
     <row r="46">
@@ -1710,19 +1710,19 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>0.5036229491233826</v>
+        <v>0.8809857368469238</v>
       </c>
     </row>
     <row r="47">
@@ -1738,7 +1738,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1747,10 +1747,10 @@
         </is>
       </c>
       <c r="E47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>0.5268341898918152</v>
+        <v>0.8608376383781433</v>
       </c>
     </row>
     <row r="48">
@@ -1766,19 +1766,19 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E48" t="b">
         <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>0.7693570256233215</v>
+        <v>0.9910366535186768</v>
       </c>
     </row>
     <row r="49">
@@ -1806,7 +1806,7 @@
         <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>0.5754368305206299</v>
+        <v>0.9978716373443604</v>
       </c>
     </row>
     <row r="50">
@@ -1822,19 +1822,19 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E50" t="b">
         <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>0.9250240921974182</v>
+        <v>0.9983641505241394</v>
       </c>
     </row>
     <row r="51">
@@ -1850,19 +1850,19 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>0.7179663777351379</v>
+        <v>0.4960064589977264</v>
       </c>
     </row>
     <row r="52">
@@ -1878,19 +1878,19 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E52" t="b">
         <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>0.5133441090583801</v>
+        <v>0.9581111669540405</v>
       </c>
     </row>
     <row r="53">
@@ -1906,19 +1906,19 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E53" t="b">
         <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>0.4614840447902679</v>
+        <v>0.9983641505241394</v>
       </c>
     </row>
     <row r="54">
@@ -1934,19 +1934,19 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E54" t="b">
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>0.3559010922908783</v>
+        <v>0.911713719367981</v>
       </c>
     </row>
     <row r="55">
@@ -1974,7 +1974,7 @@
         <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>0.8420900702476501</v>
+        <v>0.9994770884513855</v>
       </c>
     </row>
     <row r="56">
@@ -2002,7 +2002,7 @@
         <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>0.73195880651474</v>
+        <v>0.997811496257782</v>
       </c>
     </row>
     <row r="57">
@@ -2030,7 +2030,7 @@
         <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>0.8588635325431824</v>
+        <v>0.9853432178497314</v>
       </c>
     </row>
     <row r="58">
@@ -2046,19 +2046,19 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E58" t="b">
         <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>0.8966946601867676</v>
+        <v>0.9727099537849426</v>
       </c>
     </row>
     <row r="59">
@@ -2086,7 +2086,7 @@
         <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>0.3827219307422638</v>
+        <v>0.9896560907363892</v>
       </c>
     </row>
     <row r="60">
@@ -2114,7 +2114,7 @@
         <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>0.9763211607933044</v>
+        <v>0.969276487827301</v>
       </c>
     </row>
     <row r="61">
@@ -2130,19 +2130,19 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E61" t="b">
         <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>0.3851085305213928</v>
+        <v>0.9807470440864563</v>
       </c>
     </row>
     <row r="62">
@@ -2170,7 +2170,7 @@
         <v>1</v>
       </c>
       <c r="F62" t="n">
-        <v>0.8754112124443054</v>
+        <v>0.9967871904373169</v>
       </c>
     </row>
     <row r="63">
@@ -2186,19 +2186,19 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E63" t="b">
         <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>0.9279811382293701</v>
+        <v>0.9079089164733887</v>
       </c>
     </row>
     <row r="64">
@@ -2214,19 +2214,19 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E64" t="b">
         <v>1</v>
       </c>
       <c r="F64" t="n">
-        <v>0.7393601536750793</v>
+        <v>0.8476759791374207</v>
       </c>
     </row>
     <row r="65">
@@ -2242,19 +2242,19 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E65" t="b">
         <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>0.5044000744819641</v>
+        <v>0.9971768856048584</v>
       </c>
     </row>
     <row r="66">
@@ -2270,19 +2270,19 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E66" t="b">
         <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>0.6702339649200439</v>
+        <v>0.9971768856048584</v>
       </c>
     </row>
     <row r="67">
@@ -2298,19 +2298,19 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E67" t="b">
         <v>1</v>
       </c>
       <c r="F67" t="n">
-        <v>0.7856662273406982</v>
+        <v>0.8688956499099731</v>
       </c>
     </row>
     <row r="68">
@@ -2326,19 +2326,19 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E68" t="b">
         <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>0.5092876553535461</v>
+        <v>0.9971768856048584</v>
       </c>
     </row>
     <row r="69">
@@ -2354,19 +2354,19 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E69" t="b">
         <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>0.3219075798988342</v>
+        <v>0.8928708434104919</v>
       </c>
     </row>
     <row r="70">
@@ -2394,7 +2394,7 @@
         <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>0.6261351704597473</v>
+        <v>0.9567229151725769</v>
       </c>
     </row>
     <row r="71">
@@ -2410,19 +2410,19 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>0.8119702935218811</v>
+        <v>0.9717398285865784</v>
       </c>
     </row>
     <row r="72">
@@ -2450,7 +2450,7 @@
         <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>0.5827997326850891</v>
+        <v>0.9976257681846619</v>
       </c>
     </row>
     <row r="73">
@@ -2471,14 +2471,14 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F73" t="n">
-        <v>0.3872119784355164</v>
+        <v>0.9750173091888428</v>
       </c>
     </row>
     <row r="74">
@@ -2494,19 +2494,19 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E74" t="b">
         <v>1</v>
       </c>
       <c r="F74" t="n">
-        <v>0.5242534875869751</v>
+        <v>0.7822104692459106</v>
       </c>
     </row>
     <row r="75">
@@ -2522,7 +2522,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2531,10 +2531,10 @@
         </is>
       </c>
       <c r="E75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F75" t="n">
-        <v>0.6294636726379395</v>
+        <v>0.9337098598480225</v>
       </c>
     </row>
     <row r="76">
@@ -2550,19 +2550,19 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E76" t="b">
         <v>1</v>
       </c>
       <c r="F76" t="n">
-        <v>0.9615025520324707</v>
+        <v>0.9750173091888428</v>
       </c>
     </row>
     <row r="77">
@@ -2590,7 +2590,7 @@
         <v>1</v>
       </c>
       <c r="F77" t="n">
-        <v>0.859289288520813</v>
+        <v>0.9486936330795288</v>
       </c>
     </row>
     <row r="78">
@@ -2606,19 +2606,19 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E78" t="b">
         <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>0.9111466407775879</v>
+        <v>0.9750173091888428</v>
       </c>
     </row>
     <row r="79">
@@ -2646,7 +2646,7 @@
         <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>0.6531136631965637</v>
+        <v>0.9997857213020325</v>
       </c>
     </row>
     <row r="80">
@@ -2662,19 +2662,19 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E80" t="b">
         <v>1</v>
       </c>
       <c r="F80" t="n">
-        <v>0.9323112964630127</v>
+        <v>0.9670266509056091</v>
       </c>
     </row>
     <row r="81">
@@ -2702,7 +2702,7 @@
         <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>0.7197928428649902</v>
+        <v>0.8717719316482544</v>
       </c>
     </row>
     <row r="82">
@@ -2718,19 +2718,19 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E82" t="b">
         <v>1</v>
       </c>
       <c r="F82" t="n">
-        <v>0.8534074425697327</v>
+        <v>0.9670266509056091</v>
       </c>
     </row>
     <row r="83">
@@ -2746,19 +2746,19 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F83" t="n">
-        <v>0.6830316781997681</v>
+        <v>0.4095614552497864</v>
       </c>
     </row>
     <row r="84">
@@ -2774,19 +2774,19 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F84" t="n">
-        <v>0.456947386264801</v>
+        <v>0.4095614552497864</v>
       </c>
     </row>
     <row r="85">
@@ -2802,19 +2802,19 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E85" t="b">
         <v>1</v>
       </c>
       <c r="F85" t="n">
-        <v>0.7693570256233215</v>
+        <v>0.9999643564224243</v>
       </c>
     </row>
     <row r="86">
@@ -2830,19 +2830,19 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E86" t="b">
         <v>1</v>
       </c>
       <c r="F86" t="n">
-        <v>0.4624871611595154</v>
+        <v>0.9947679042816162</v>
       </c>
     </row>
     <row r="87">
@@ -2870,7 +2870,7 @@
         <v>1</v>
       </c>
       <c r="F87" t="n">
-        <v>0.9250240921974182</v>
+        <v>0.9246714115142822</v>
       </c>
     </row>
     <row r="88">
@@ -2898,7 +2898,7 @@
         <v>1</v>
       </c>
       <c r="F88" t="n">
-        <v>0.7583677768707275</v>
+        <v>0.9701721668243408</v>
       </c>
     </row>
     <row r="89">
@@ -2926,7 +2926,7 @@
         <v>1</v>
       </c>
       <c r="F89" t="n">
-        <v>0.9692329168319702</v>
+        <v>0.9163401126861572</v>
       </c>
     </row>
     <row r="90">
@@ -2954,7 +2954,7 @@
         <v>1</v>
       </c>
       <c r="F90" t="n">
-        <v>0.5036929249763489</v>
+        <v>0.9950284361839294</v>
       </c>
     </row>
     <row r="91">
@@ -2982,7 +2982,7 @@
         <v>1</v>
       </c>
       <c r="F91" t="n">
-        <v>0.5144588947296143</v>
+        <v>0.9947157502174377</v>
       </c>
     </row>
     <row r="92">
@@ -3010,7 +3010,7 @@
         <v>1</v>
       </c>
       <c r="F92" t="n">
-        <v>0.9628075361251831</v>
+        <v>0.9931667447090149</v>
       </c>
     </row>
     <row r="93">
@@ -3038,7 +3038,7 @@
         <v>1</v>
       </c>
       <c r="F93" t="n">
-        <v>0.7710364460945129</v>
+        <v>0.9932570457458496</v>
       </c>
     </row>
     <row r="94">
@@ -3054,19 +3054,19 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E94" t="b">
         <v>1</v>
       </c>
       <c r="F94" t="n">
-        <v>0.5420392155647278</v>
+        <v>0.9932954907417297</v>
       </c>
     </row>
     <row r="95">
@@ -3094,7 +3094,7 @@
         <v>1</v>
       </c>
       <c r="F95" t="n">
-        <v>0.8034660220146179</v>
+        <v>0.993351936340332</v>
       </c>
     </row>
     <row r="96">
@@ -3122,7 +3122,7 @@
         <v>1</v>
       </c>
       <c r="F96" t="n">
-        <v>0.8971564173698425</v>
+        <v>0.8437758684158325</v>
       </c>
     </row>
     <row r="97">
@@ -3138,19 +3138,19 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F97" t="n">
-        <v>0.5001477003097534</v>
+        <v>0.8799981474876404</v>
       </c>
     </row>
     <row r="98">
@@ -3178,7 +3178,7 @@
         <v>1</v>
       </c>
       <c r="F98" t="n">
-        <v>0.8537728190422058</v>
+        <v>0.9979382157325745</v>
       </c>
     </row>
     <row r="99">
@@ -3194,19 +3194,19 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E99" t="b">
         <v>1</v>
       </c>
       <c r="F99" t="n">
-        <v>0.7611002326011658</v>
+        <v>0.5898904204368591</v>
       </c>
     </row>
     <row r="100">
@@ -3222,19 +3222,19 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F100" t="n">
-        <v>0.8120250701904297</v>
+        <v>0.9951428174972534</v>
       </c>
     </row>
     <row r="101">
@@ -3250,7 +3250,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -3259,10 +3259,10 @@
         </is>
       </c>
       <c r="E101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F101" t="n">
-        <v>0.5792641043663025</v>
+        <v>0.9692891240119934</v>
       </c>
     </row>
     <row r="102">
@@ -3278,19 +3278,19 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E102" t="b">
         <v>1</v>
       </c>
       <c r="F102" t="n">
-        <v>0.8510826826095581</v>
+        <v>0.8610913157463074</v>
       </c>
     </row>
     <row r="103">
@@ -3306,7 +3306,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3315,10 +3315,10 @@
         </is>
       </c>
       <c r="E103" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F103" t="n">
-        <v>0.9250240921974182</v>
+        <v>0.7111036777496338</v>
       </c>
     </row>
     <row r="104">
@@ -3346,7 +3346,7 @@
         <v>1</v>
       </c>
       <c r="F104" t="n">
-        <v>0.9173659682273865</v>
+        <v>0.8836902379989624</v>
       </c>
     </row>
     <row r="105">
@@ -3362,19 +3362,19 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E105" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F105" t="n">
-        <v>0.7142762541770935</v>
+        <v>0.9887258410453796</v>
       </c>
     </row>
     <row r="106">
@@ -3402,7 +3402,7 @@
         <v>1</v>
       </c>
       <c r="F106" t="n">
-        <v>0.7105006575584412</v>
+        <v>0.9519436955451965</v>
       </c>
     </row>
     <row r="107">
@@ -3418,19 +3418,19 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E107" t="b">
         <v>1</v>
       </c>
       <c r="F107" t="n">
-        <v>0.9170577526092529</v>
+        <v>0.7110674381256104</v>
       </c>
     </row>
     <row r="108">
@@ -3446,19 +3446,19 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E108" t="b">
         <v>1</v>
       </c>
       <c r="F108" t="n">
-        <v>0.6525814533233643</v>
+        <v>0.9654881358146667</v>
       </c>
     </row>
     <row r="109">
@@ -3474,7 +3474,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -3483,10 +3483,10 @@
         </is>
       </c>
       <c r="E109" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F109" t="n">
-        <v>0.350078284740448</v>
+        <v>0.8682472109794617</v>
       </c>
     </row>
     <row r="110">
@@ -3514,7 +3514,7 @@
         <v>1</v>
       </c>
       <c r="F110" t="n">
-        <v>0.8764801025390625</v>
+        <v>0.9983365535736084</v>
       </c>
     </row>
     <row r="111">
@@ -3530,19 +3530,19 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E111" t="b">
         <v>1</v>
       </c>
       <c r="F111" t="n">
-        <v>0.5733444094657898</v>
+        <v>0.9589803814888</v>
       </c>
     </row>
     <row r="112">
@@ -3570,7 +3570,7 @@
         <v>1</v>
       </c>
       <c r="F112" t="n">
-        <v>0.91234290599823</v>
+        <v>0.9431426525115967</v>
       </c>
     </row>
     <row r="113">
@@ -3586,19 +3586,19 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E113" t="b">
         <v>1</v>
       </c>
       <c r="F113" t="n">
-        <v>0.7758226990699768</v>
+        <v>0.9604480266571045</v>
       </c>
     </row>
     <row r="114">
@@ -3626,7 +3626,7 @@
         <v>1</v>
       </c>
       <c r="F114" t="n">
-        <v>0.7629469633102417</v>
+        <v>0.9600841999053955</v>
       </c>
     </row>
     <row r="115">
@@ -3642,19 +3642,19 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E115" t="b">
         <v>1</v>
       </c>
       <c r="F115" t="n">
-        <v>0.5189974904060364</v>
+        <v>0.7219439148902893</v>
       </c>
     </row>
     <row r="116">
@@ -3682,7 +3682,7 @@
         <v>1</v>
       </c>
       <c r="F116" t="n">
-        <v>0.8886284232139587</v>
+        <v>0.8690087795257568</v>
       </c>
     </row>
     <row r="117">
@@ -3710,7 +3710,7 @@
         <v>1</v>
       </c>
       <c r="F117" t="n">
-        <v>0.9201679229736328</v>
+        <v>0.995735764503479</v>
       </c>
     </row>
     <row r="118">
@@ -3738,7 +3738,7 @@
         <v>0</v>
       </c>
       <c r="F118" t="n">
-        <v>0.736211359500885</v>
+        <v>0.9750275015830994</v>
       </c>
     </row>
     <row r="119">
@@ -3754,19 +3754,19 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E119" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F119" t="n">
-        <v>0.715849757194519</v>
+        <v>0.4379598796367645</v>
       </c>
     </row>
     <row r="120">
@@ -3782,19 +3782,19 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E120" t="b">
         <v>1</v>
       </c>
       <c r="F120" t="n">
-        <v>0.5133441090583801</v>
+        <v>0.9983365535736084</v>
       </c>
     </row>
     <row r="121">
@@ -3810,19 +3810,19 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E121" t="b">
         <v>1</v>
       </c>
       <c r="F121" t="n">
-        <v>0.6317698359489441</v>
+        <v>0.9820051193237305</v>
       </c>
     </row>
     <row r="122">
@@ -3850,7 +3850,7 @@
         <v>1</v>
       </c>
       <c r="F122" t="n">
-        <v>0.3855257630348206</v>
+        <v>0.9981156587600708</v>
       </c>
     </row>
     <row r="123">
@@ -3866,19 +3866,19 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E123" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F123" t="n">
-        <v>0.4238786697387695</v>
+        <v>0.9820051193237305</v>
       </c>
     </row>
     <row r="124">
@@ -3894,19 +3894,19 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E124" t="b">
         <v>1</v>
       </c>
       <c r="F124" t="n">
-        <v>0.5831194519996643</v>
+        <v>0.9981156587600708</v>
       </c>
     </row>
     <row r="125">
@@ -3922,19 +3922,19 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E125" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F125" t="n">
-        <v>0.5288332104682922</v>
+        <v>0.9820051193237305</v>
       </c>
     </row>
     <row r="126">
@@ -3962,7 +3962,7 @@
         <v>1</v>
       </c>
       <c r="F126" t="n">
-        <v>0.8180080056190491</v>
+        <v>0.9999678134918213</v>
       </c>
     </row>
     <row r="127">
@@ -3983,14 +3983,14 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E127" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F127" t="n">
-        <v>0.8962628245353699</v>
+        <v>0.483541876077652</v>
       </c>
     </row>
     <row r="128">
@@ -4006,7 +4006,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -4015,10 +4015,10 @@
         </is>
       </c>
       <c r="E128" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F128" t="n">
-        <v>0.5540068745613098</v>
+        <v>0.9983365535736084</v>
       </c>
     </row>
     <row r="129">
@@ -4034,19 +4034,19 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E129" t="b">
         <v>0</v>
       </c>
       <c r="F129" t="n">
-        <v>0.3879128098487854</v>
+        <v>0.5989271998405457</v>
       </c>
     </row>
     <row r="130">
@@ -4062,19 +4062,19 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
           <t>ParamViolation</t>
         </is>
       </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>ParamViolation</t>
-        </is>
-      </c>
       <c r="E130" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F130" t="n">
-        <v>0.6554084420204163</v>
+        <v>0.7379726767539978</v>
       </c>
     </row>
     <row r="131">
@@ -4102,7 +4102,7 @@
         <v>1</v>
       </c>
       <c r="F131" t="n">
-        <v>0.7799614667892456</v>
+        <v>0.9997219443321228</v>
       </c>
     </row>
     <row r="132">
@@ -4118,7 +4118,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -4127,10 +4127,10 @@
         </is>
       </c>
       <c r="E132" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F132" t="n">
-        <v>0.9249476194381714</v>
+        <v>0.5511822700500488</v>
       </c>
     </row>
     <row r="133">
@@ -4146,19 +4146,19 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E133" t="b">
         <v>1</v>
       </c>
       <c r="F133" t="n">
-        <v>0.54228675365448</v>
+        <v>0.9915741086006165</v>
       </c>
     </row>
     <row r="134">
@@ -4174,19 +4174,19 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E134" t="b">
         <v>1</v>
       </c>
       <c r="F134" t="n">
-        <v>0.551442563533783</v>
+        <v>0.7964078187942505</v>
       </c>
     </row>
     <row r="135">
@@ -4214,7 +4214,7 @@
         <v>1</v>
       </c>
       <c r="F135" t="n">
-        <v>0.8241322636604309</v>
+        <v>0.8345373272895813</v>
       </c>
     </row>
     <row r="136">
@@ -4242,7 +4242,7 @@
         <v>1</v>
       </c>
       <c r="F136" t="n">
-        <v>0.9213314652442932</v>
+        <v>0.9487283825874329</v>
       </c>
     </row>
     <row r="137">
@@ -4258,19 +4258,19 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E137" t="b">
         <v>1</v>
       </c>
       <c r="F137" t="n">
-        <v>0.893530547618866</v>
+        <v>0.9947581887245178</v>
       </c>
     </row>
     <row r="138">
@@ -4298,7 +4298,7 @@
         <v>1</v>
       </c>
       <c r="F138" t="n">
-        <v>0.9596107006072998</v>
+        <v>0.9315452575683594</v>
       </c>
     </row>
     <row r="139">
@@ -4326,7 +4326,7 @@
         <v>1</v>
       </c>
       <c r="F139" t="n">
-        <v>0.9638760089874268</v>
+        <v>0.9979388117790222</v>
       </c>
     </row>
     <row r="140">
@@ -4342,7 +4342,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -4351,10 +4351,10 @@
         </is>
       </c>
       <c r="E140" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F140" t="n">
-        <v>0.6675087809562683</v>
+        <v>0.9941816926002502</v>
       </c>
     </row>
     <row r="141">
@@ -4382,7 +4382,7 @@
         <v>1</v>
       </c>
       <c r="F141" t="n">
-        <v>0.8510057330131531</v>
+        <v>0.9709069728851318</v>
       </c>
     </row>
     <row r="142">
@@ -4410,7 +4410,7 @@
         <v>1</v>
       </c>
       <c r="F142" t="n">
-        <v>0.7374292612075806</v>
+        <v>0.9983365535736084</v>
       </c>
     </row>
     <row r="143">
@@ -4426,19 +4426,19 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E143" t="b">
         <v>1</v>
       </c>
       <c r="F143" t="n">
-        <v>0.786176860332489</v>
+        <v>0.6077293157577515</v>
       </c>
     </row>
     <row r="144">
@@ -4454,7 +4454,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -4463,10 +4463,10 @@
         </is>
       </c>
       <c r="E144" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F144" t="n">
-        <v>0.6551051139831543</v>
+        <v>0.9989515542984009</v>
       </c>
     </row>
     <row r="145">
@@ -4482,19 +4482,19 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E145" t="b">
         <v>1</v>
       </c>
       <c r="F145" t="n">
-        <v>0.5420392155647278</v>
+        <v>0.6077293157577515</v>
       </c>
     </row>
     <row r="146">
@@ -4510,19 +4510,19 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E146" t="b">
         <v>1</v>
       </c>
       <c r="F146" t="n">
-        <v>0.7543795108795166</v>
+        <v>0.9991936087608337</v>
       </c>
     </row>
     <row r="147">
@@ -4538,19 +4538,19 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E147" t="b">
         <v>1</v>
       </c>
       <c r="F147" t="n">
-        <v>0.6083504557609558</v>
+        <v>0.8928708434104919</v>
       </c>
     </row>
     <row r="148">
@@ -4578,7 +4578,7 @@
         <v>1</v>
       </c>
       <c r="F148" t="n">
-        <v>0.9182361364364624</v>
+        <v>0.9199640154838562</v>
       </c>
     </row>
     <row r="149">
@@ -4594,19 +4594,19 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E149" t="b">
         <v>1</v>
       </c>
       <c r="F149" t="n">
-        <v>0.8973865509033203</v>
+        <v>0.9031893610954285</v>
       </c>
     </row>
     <row r="150">
@@ -4622,19 +4622,19 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E150" t="b">
         <v>1</v>
       </c>
       <c r="F150" t="n">
-        <v>0.9250240921974182</v>
+        <v>0.728658139705658</v>
       </c>
     </row>
     <row r="151">
@@ -4662,7 +4662,7 @@
         <v>1</v>
       </c>
       <c r="F151" t="n">
-        <v>0.8334412574768066</v>
+        <v>0.9983365535736084</v>
       </c>
     </row>
     <row r="152">
@@ -4678,19 +4678,19 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E152" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F152" t="n">
-        <v>0.4412921369075775</v>
+        <v>0.8933130502700806</v>
       </c>
     </row>
     <row r="153">
@@ -4706,19 +4706,19 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E153" t="b">
         <v>1</v>
       </c>
       <c r="F153" t="n">
-        <v>0.3851085305213928</v>
+        <v>0.9991649389266968</v>
       </c>
     </row>
     <row r="154">
@@ -4734,19 +4734,19 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E154" t="b">
         <v>1</v>
       </c>
       <c r="F154" t="n">
-        <v>0.7603113651275635</v>
+        <v>0.9732740521430969</v>
       </c>
     </row>
     <row r="155">
@@ -4774,7 +4774,7 @@
         <v>1</v>
       </c>
       <c r="F155" t="n">
-        <v>0.8362709283828735</v>
+        <v>0.991866409778595</v>
       </c>
     </row>
     <row r="156">
@@ -4795,14 +4795,14 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E156" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F156" t="n">
-        <v>0.3231417834758759</v>
+        <v>0.9664018750190735</v>
       </c>
     </row>
     <row r="157">
@@ -4830,7 +4830,7 @@
         <v>1</v>
       </c>
       <c r="F157" t="n">
-        <v>0.7157086730003357</v>
+        <v>0.9876686930656433</v>
       </c>
     </row>
     <row r="158">
@@ -4846,19 +4846,19 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E158" t="b">
         <v>1</v>
       </c>
       <c r="F158" t="n">
-        <v>0.8036195039749146</v>
+        <v>0.9839460849761963</v>
       </c>
     </row>
     <row r="159">
@@ -4874,7 +4874,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -4883,10 +4883,10 @@
         </is>
       </c>
       <c r="E159" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F159" t="n">
-        <v>0.3559010922908783</v>
+        <v>0.9919661283493042</v>
       </c>
     </row>
     <row r="160">
@@ -4902,19 +4902,19 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E160" t="b">
         <v>1</v>
       </c>
       <c r="F160" t="n">
-        <v>0.9250240921974182</v>
+        <v>0.6794928908348083</v>
       </c>
     </row>
     <row r="161">
@@ -4930,7 +4930,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -4939,10 +4939,10 @@
         </is>
       </c>
       <c r="E161" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F161" t="n">
-        <v>0.4071926474571228</v>
+        <v>0.9955034852027893</v>
       </c>
     </row>
     <row r="162">
@@ -4958,7 +4958,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -4967,10 +4967,10 @@
         </is>
       </c>
       <c r="E162" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F162" t="n">
-        <v>0.9213314652442932</v>
+        <v>0.9488199353218079</v>
       </c>
     </row>
     <row r="163">
@@ -4998,7 +4998,7 @@
         <v>1</v>
       </c>
       <c r="F163" t="n">
-        <v>0.8460382223129272</v>
+        <v>0.7628276944160461</v>
       </c>
     </row>
     <row r="164">
@@ -5014,19 +5014,19 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E164" t="b">
         <v>1</v>
       </c>
       <c r="F164" t="n">
-        <v>0.8381600379943848</v>
+        <v>0.9678311944007874</v>
       </c>
     </row>
     <row r="165">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="F165" t="n">
-        <v>0.5067015290260315</v>
+        <v>0.995074450969696</v>
       </c>
     </row>
     <row r="166">
@@ -5082,7 +5082,7 @@
         <v>1</v>
       </c>
       <c r="F166" t="n">
-        <v>0.9237464666366577</v>
+        <v>0.9594693779945374</v>
       </c>
     </row>
     <row r="167">
@@ -5098,19 +5098,19 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E167" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F167" t="n">
-        <v>0.6127461194992065</v>
+        <v>0.899608314037323</v>
       </c>
     </row>
     <row r="168">
@@ -5131,14 +5131,14 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E168" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F168" t="n">
-        <v>0.8362709283828735</v>
+        <v>0.482970803976059</v>
       </c>
     </row>
     <row r="169">
@@ -5154,19 +5154,19 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E169" t="b">
         <v>1</v>
       </c>
       <c r="F169" t="n">
-        <v>0.4719610214233398</v>
+        <v>0.9983365535736084</v>
       </c>
     </row>
     <row r="170">
@@ -5182,19 +5182,19 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E170" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F170" t="n">
-        <v>0.5538185834884644</v>
+        <v>0.899608314037323</v>
       </c>
     </row>
     <row r="171">
@@ -5215,14 +5215,14 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E171" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>0.827372670173645</v>
+        <v>0.8803954720497131</v>
       </c>
     </row>
     <row r="172">
@@ -5250,7 +5250,7 @@
         <v>1</v>
       </c>
       <c r="F172" t="n">
-        <v>0.7752794623374939</v>
+        <v>0.9983365535736084</v>
       </c>
     </row>
     <row r="173">
@@ -5278,7 +5278,7 @@
         <v>1</v>
       </c>
       <c r="F173" t="n">
-        <v>0.9421371221542358</v>
+        <v>0.9919249415397644</v>
       </c>
     </row>
     <row r="174">
@@ -5306,7 +5306,7 @@
         <v>1</v>
       </c>
       <c r="F174" t="n">
-        <v>0.8411444425582886</v>
+        <v>0.9965643286705017</v>
       </c>
     </row>
     <row r="175">
@@ -5327,14 +5327,14 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E175" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F175" t="n">
-        <v>0.4315110146999359</v>
+        <v>0.9919249415397644</v>
       </c>
     </row>
     <row r="176">
@@ -5350,19 +5350,19 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E176" t="b">
         <v>1</v>
       </c>
       <c r="F176" t="n">
-        <v>0.8185239434242249</v>
+        <v>0.9919249415397644</v>
       </c>
     </row>
     <row r="177">
@@ -5378,19 +5378,19 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E177" t="b">
         <v>1</v>
       </c>
       <c r="F177" t="n">
-        <v>0.91234290599823</v>
+        <v>0.9965643286705017</v>
       </c>
     </row>
     <row r="178">
@@ -5406,19 +5406,19 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E178" t="b">
         <v>1</v>
       </c>
       <c r="F178" t="n">
-        <v>0.4959019422531128</v>
+        <v>0.9955329895019531</v>
       </c>
     </row>
     <row r="179">
@@ -5434,7 +5434,7 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -5443,10 +5443,10 @@
         </is>
       </c>
       <c r="E179" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F179" t="n">
-        <v>0.5304462909698486</v>
+        <v>0.9758146405220032</v>
       </c>
     </row>
     <row r="180">
@@ -5462,19 +5462,19 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E180" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F180" t="n">
-        <v>0.4242937862873077</v>
+        <v>0.9740205407142639</v>
       </c>
     </row>
     <row r="181">
@@ -5502,7 +5502,7 @@
         <v>1</v>
       </c>
       <c r="F181" t="n">
-        <v>0.7956891059875488</v>
+        <v>0.9473357796669006</v>
       </c>
     </row>
     <row r="182">
@@ -5518,7 +5518,7 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -5527,10 +5527,10 @@
         </is>
       </c>
       <c r="E182" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F182" t="n">
-        <v>0.4892421066761017</v>
+        <v>0.9929297566413879</v>
       </c>
     </row>
     <row r="183">
@@ -5546,19 +5546,19 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E183" t="b">
         <v>1</v>
       </c>
       <c r="F183" t="n">
-        <v>0.8939008712768555</v>
+        <v>0.9493958353996277</v>
       </c>
     </row>
     <row r="184">
@@ -5586,7 +5586,7 @@
         <v>1</v>
       </c>
       <c r="F184" t="n">
-        <v>0.7499088644981384</v>
+        <v>0.9992095232009888</v>
       </c>
     </row>
     <row r="185">
@@ -5614,7 +5614,7 @@
         <v>1</v>
       </c>
       <c r="F185" t="n">
-        <v>0.9250240921974182</v>
+        <v>0.9993414282798767</v>
       </c>
     </row>
     <row r="186">
@@ -5642,7 +5642,7 @@
         <v>1</v>
       </c>
       <c r="F186" t="n">
-        <v>0.6946038007736206</v>
+        <v>0.9906715154647827</v>
       </c>
     </row>
     <row r="187">
@@ -5670,7 +5670,7 @@
         <v>1</v>
       </c>
       <c r="F187" t="n">
-        <v>0.7999531030654907</v>
+        <v>0.9768772125244141</v>
       </c>
     </row>
     <row r="188">
@@ -5686,19 +5686,19 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E188" t="b">
         <v>1</v>
       </c>
       <c r="F188" t="n">
-        <v>0.8185239434242249</v>
+        <v>0.9964103102684021</v>
       </c>
     </row>
     <row r="189">
@@ -5726,7 +5726,7 @@
         <v>1</v>
       </c>
       <c r="F189" t="n">
-        <v>0.786124587059021</v>
+        <v>0.9985276460647583</v>
       </c>
     </row>
     <row r="190">
@@ -5742,7 +5742,7 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -5751,10 +5751,10 @@
         </is>
       </c>
       <c r="E190" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F190" t="n">
-        <v>0.6399450302124023</v>
+        <v>0.9997925162315369</v>
       </c>
     </row>
     <row r="191">
@@ -5770,7 +5770,7 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
@@ -5779,10 +5779,10 @@
         </is>
       </c>
       <c r="E191" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F191" t="n">
-        <v>0.7305928468704224</v>
+        <v>0.6704361438751221</v>
       </c>
     </row>
     <row r="192">
@@ -5798,19 +5798,19 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E192" t="b">
         <v>1</v>
       </c>
       <c r="F192" t="n">
-        <v>0.6356751322746277</v>
+        <v>0.9974591135978699</v>
       </c>
     </row>
     <row r="193">
@@ -5826,19 +5826,19 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E193" t="b">
         <v>1</v>
       </c>
       <c r="F193" t="n">
-        <v>0.5706315040588379</v>
+        <v>0.9502183198928833</v>
       </c>
     </row>
     <row r="194">
@@ -5854,19 +5854,19 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E194" t="b">
         <v>1</v>
       </c>
       <c r="F194" t="n">
-        <v>0.9742991924285889</v>
+        <v>0.9503188729286194</v>
       </c>
     </row>
     <row r="195">
@@ -5882,19 +5882,19 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E195" t="b">
         <v>1</v>
       </c>
       <c r="F195" t="n">
-        <v>0.9020088911056519</v>
+        <v>0.8324241042137146</v>
       </c>
     </row>
     <row r="196">
@@ -5922,7 +5922,7 @@
         <v>1</v>
       </c>
       <c r="F196" t="n">
-        <v>0.6274304986000061</v>
+        <v>0.9988275170326233</v>
       </c>
     </row>
     <row r="197">
@@ -5950,7 +5950,7 @@
         <v>1</v>
       </c>
       <c r="F197" t="n">
-        <v>0.828569769859314</v>
+        <v>0.9992498755455017</v>
       </c>
     </row>
     <row r="198">
@@ -5966,19 +5966,19 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E198" t="b">
         <v>1</v>
       </c>
       <c r="F198" t="n">
-        <v>0.5159342288970947</v>
+        <v>0.9994078874588013</v>
       </c>
     </row>
     <row r="199">
@@ -5994,19 +5994,19 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E199" t="b">
         <v>1</v>
       </c>
       <c r="F199" t="n">
-        <v>0.7611002326011658</v>
+        <v>0.9507773518562317</v>
       </c>
     </row>
     <row r="200">
@@ -6022,19 +6022,19 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E200" t="b">
         <v>1</v>
       </c>
       <c r="F200" t="n">
-        <v>0.5338541865348816</v>
+        <v>0.5428356528282166</v>
       </c>
     </row>
     <row r="201">
@@ -6050,19 +6050,19 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E201" t="b">
         <v>1</v>
       </c>
       <c r="F201" t="n">
-        <v>0.5133441090583801</v>
+        <v>0.9985985159873962</v>
       </c>
     </row>
     <row r="202">
@@ -6090,7 +6090,7 @@
         <v>1</v>
       </c>
       <c r="F202" t="n">
-        <v>0.984966516494751</v>
+        <v>0.766324520111084</v>
       </c>
     </row>
     <row r="203">
@@ -6118,7 +6118,7 @@
         <v>1</v>
       </c>
       <c r="F203" t="n">
-        <v>0.9478988647460938</v>
+        <v>0.8287729024887085</v>
       </c>
     </row>
     <row r="204">
@@ -6134,19 +6134,19 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E204" t="b">
         <v>1</v>
       </c>
       <c r="F204" t="n">
-        <v>0.9555865526199341</v>
+        <v>0.9613111615180969</v>
       </c>
     </row>
     <row r="205">
@@ -6174,7 +6174,7 @@
         <v>1</v>
       </c>
       <c r="F205" t="n">
-        <v>0.9250240921974182</v>
+        <v>0.8350294232368469</v>
       </c>
     </row>
     <row r="206">
@@ -6190,19 +6190,19 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E206" t="b">
         <v>1</v>
       </c>
       <c r="F206" t="n">
-        <v>0.7693570256233215</v>
+        <v>0.9991647005081177</v>
       </c>
     </row>
     <row r="207">
@@ -6218,19 +6218,19 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E207" t="b">
         <v>1</v>
       </c>
       <c r="F207" t="n">
-        <v>0.4712243676185608</v>
+        <v>0.9564234018325806</v>
       </c>
     </row>
     <row r="208">
@@ -6258,7 +6258,7 @@
         <v>1</v>
       </c>
       <c r="F208" t="n">
-        <v>0.895415723323822</v>
+        <v>0.9688860774040222</v>
       </c>
     </row>
     <row r="209">
@@ -6274,19 +6274,19 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E209" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F209" t="n">
-        <v>0.4284568727016449</v>
+        <v>0.7485014200210571</v>
       </c>
     </row>
     <row r="210">
@@ -6302,19 +6302,19 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E210" t="b">
         <v>1</v>
       </c>
       <c r="F210" t="n">
-        <v>0.7822737693786621</v>
+        <v>0.9888995289802551</v>
       </c>
     </row>
   </sheetData>
